--- a/Resources/1999/Basic_Percentile_1999.xlsx
+++ b/Resources/1999/Basic_Percentile_1999.xlsx
@@ -1384,28 +1384,28 @@
     <t>Shareef Abdur-Rahim</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Antonio McDyess</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Scottie Pippen*</t>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Kobe Bryant</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Jason Kidd*</t>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Eddie Jones</t>
@@ -1444,13 +1444,13 @@
     <t>Keith Van Horn</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Juwan Howard</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Doug Christie</t>
@@ -1471,10 +1471,10 @@
     <t>Michael Finley</t>
   </si>
   <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Alonzo Mourning*</t>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Kerry Kittles</t>
@@ -1483,19 +1483,19 @@
     <t>Terrell Brandon</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Kendall Gill</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
-  </si>
-  <si>
-    <t>Arvydas Sabonis*</t>
-  </si>
-  <si>
-    <t>Allen Iverson*</t>
+    <t>Patrick Ewing</t>
+  </si>
+  <si>
+    <t>Arvydas Sabonis</t>
+  </si>
+  <si>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Detlef Schrempf</t>
@@ -1549,7 +1549,7 @@
     <t>Steve Smith</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Theo Ratliff</t>
@@ -1579,7 +1579,7 @@
     <t>Raef LaFrentz</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Brent Barry</t>
@@ -1621,13 +1621,13 @@
     <t>Charlie Ward</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Tyrone Nesby</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Zydrunas Ilgauskas</t>
@@ -1786,7 +1786,7 @@
     <t>Michael Smith</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Danny Fortson</t>
@@ -1861,13 +1861,13 @@
     <t>Dale Davis</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Jim McIlvaine</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Antawn Jamison</t>
@@ -2008,7 +2008,7 @@
     <t>Derek Harper</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Chris Childs</t>
@@ -2068,7 +2068,7 @@
     <t>Othella Harrington</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Greg Anthony</t>
@@ -2533,7 +2533,7 @@
     <t>Brian Evans</t>
   </si>
   <si>
-    <t>Dominique Wilkins*</t>
+    <t>Dominique Wilkins</t>
   </si>
   <si>
     <t>Pat Garrity</t>
